--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_33.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1806662.598399828</v>
+        <v>1909544.10426858</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18142616.70954774</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2060125.517083135</v>
+        <v>278692.0725916869</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5563228.27608043</v>
+        <v>6075948.260441185</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>252.7913430709382</v>
       </c>
       <c r="D2" t="n">
-        <v>61.37033924555244</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -716,7 +718,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
@@ -814,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>32.43393787379242</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -865,10 +867,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -877,7 +879,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>228.0098952250312</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -896,22 +898,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>143.7799084976335</v>
+        <v>319.4882362379722</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -947,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1069,10 +1071,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>29.10461178738966</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,13 +1110,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>13.86454771675433</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1136,10 +1138,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>386.7991809632501</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
@@ -1148,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>143.9188969657111</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1198,7 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1297,13 +1299,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>123.7760609888577</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -1342,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1370,25 +1372,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>164.391101121962</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1540,7 +1542,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>3.139541480023087</v>
+        <v>24.34318456169651</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1582,7 +1584,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>275.6486707394337</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1607,25 +1609,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791314795</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800145</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W14" t="n">
-        <v>186.3394173822681</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="15">
@@ -1771,19 +1773,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>90.30617524481251</v>
       </c>
       <c r="I16" t="n">
-        <v>7.264602967362581</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1847,22 +1849,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G17" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112164</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791314795</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800145</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -1901,16 +1903,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="18">
@@ -2017,7 +2019,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>108.5103196251633</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -2059,10 +2061,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>144.4937753855419</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2078,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800609</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -2093,13 +2095,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791297911</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2138,16 +2140,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="21">
@@ -2251,10 +2253,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2305,7 +2307,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>104.6990987647618</v>
       </c>
     </row>
     <row r="23">
@@ -2479,7 +2481,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>2.292363805516792</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2488,13 +2490,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
@@ -2542,7 +2544,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2719,7 +2721,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
@@ -2731,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2779,7 +2781,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>165.8403702950055</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -2962,7 +2964,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3196,16 +3198,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3247,7 +3249,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>236.0263989200893</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>422.036574780059</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
@@ -3436,10 +3438,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>3.139541480022588</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3481,7 +3483,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>142.4359347523201</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3670,16 +3672,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>105.2234111170472</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3721,13 +3723,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>216.3562841193497</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3746,7 +3748,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
@@ -3755,10 +3757,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>231.397141420298</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3901,7 +3903,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3916,7 +3918,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3955,7 +3957,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>82.43648595644017</v>
+        <v>5.990622819018522</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>237.5034769650816</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -3995,7 +3997,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791316623</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,22 +4030,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4150,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,22 +4185,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>172.6623007436909</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>239.7909713904976</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1702.080476705852</v>
+        <v>771.4315001967747</v>
       </c>
       <c r="C2" t="n">
-        <v>1667.97840792968</v>
+        <v>516.086709216029</v>
       </c>
       <c r="D2" t="n">
-        <v>1605.988166267505</v>
+        <v>87.50503495329731</v>
       </c>
       <c r="E2" t="n">
-        <v>1172.213421425801</v>
+        <v>57.77069415199655</v>
       </c>
       <c r="F2" t="n">
-        <v>744.3459918350084</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>342.9481604582723</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148855</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>488.6559039815464</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>488.6559039815464</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L2" t="n">
-        <v>488.6559039815464</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M2" t="n">
-        <v>488.6559039815464</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N2" t="n">
-        <v>632.7278666362198</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O2" t="n">
-        <v>1293.567921177998</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719776</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678371</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>2586.408952615265</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>2366.341725488303</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U2" t="n">
-        <v>2107.11942280532</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V2" t="n">
-        <v>1744.502472739146</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="W2" t="n">
-        <v>1743.687422190584</v>
+        <v>1217.07884972191</v>
       </c>
       <c r="X2" t="n">
-        <v>1728.585362810299</v>
+        <v>1201.976790341625</v>
       </c>
       <c r="Y2" t="n">
-        <v>1724.339643150356</v>
+        <v>1197.731070681682</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1512.992809943912</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>1406.536348780554</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
-        <v>1311.446059927107</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E3" t="n">
-        <v>1217.325645254061</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>1133.941806870223</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>1048.556717136407</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
-        <v>1006.821064952619</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>1032.884738113077</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>1357.443063079289</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>1357.443063079289</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>1357.443063079289</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>1357.443063079289</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>1357.443063079289</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>1357.443063079289</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
-        <v>2012.149109705013</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
-        <v>2552.888048337089</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R3" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S3" t="n">
-        <v>2606.605388879811</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T3" t="n">
-        <v>2476.426745210413</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U3" t="n">
-        <v>2300.090198210381</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V3" t="n">
-        <v>2100.97268027238</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W3" t="n">
-        <v>1915.649926005574</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X3" t="n">
-        <v>1760.782490244454</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y3" t="n">
-        <v>1634.296711023675</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>783.1906115854911</v>
+        <v>637.5656745568458</v>
       </c>
       <c r="C4" t="n">
-        <v>783.1906115854911</v>
+        <v>637.5656745568458</v>
       </c>
       <c r="D4" t="n">
-        <v>617.3126187870138</v>
+        <v>637.5656745568458</v>
       </c>
       <c r="E4" t="n">
-        <v>447.554615037751</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F4" t="n">
-        <v>447.554615037751</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
-        <v>281.9633400635787</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>142.0611657539532</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>139.9809016933184</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>414.739356264454</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>832.9492380324151</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>1292.433105213328</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370972</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>2154.361157596754</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>2501.868051567096</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>2648.6430051368</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434796</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013251</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="U4" t="n">
-        <v>1965.089189266357</v>
+        <v>1397.332608038895</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136787</v>
+        <v>1110.377099909325</v>
       </c>
       <c r="W4" t="n">
-        <v>1447.820655656958</v>
+        <v>1110.377099909325</v>
       </c>
       <c r="X4" t="n">
-        <v>1202.42890099037</v>
+        <v>864.9853452427376</v>
       </c>
       <c r="Y4" t="n">
-        <v>975.0092303044783</v>
+        <v>637.5656745568458</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>977.6515424412072</v>
+        <v>863.0357172789476</v>
       </c>
       <c r="C5" t="n">
-        <v>832.4193116355168</v>
+        <v>540.3203271395817</v>
       </c>
       <c r="D5" t="n">
-        <v>800.5499308503654</v>
+        <v>508.4509463544302</v>
       </c>
       <c r="E5" t="n">
-        <v>366.7751860086605</v>
+        <v>478.7166055531294</v>
       </c>
       <c r="F5" t="n">
-        <v>342.9481604582723</v>
+        <v>50.84917596233716</v>
       </c>
       <c r="G5" t="n">
-        <v>342.9481604582723</v>
+        <v>50.84917596233716</v>
       </c>
       <c r="H5" t="n">
-        <v>53.81800590148855</v>
+        <v>50.84917596233716</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947717</v>
       </c>
       <c r="J5" t="n">
-        <v>488.6559039815464</v>
+        <v>485.6870740423951</v>
       </c>
       <c r="K5" t="n">
-        <v>1149.495958523325</v>
+        <v>1109.787858087175</v>
       </c>
       <c r="L5" t="n">
-        <v>1149.495958523325</v>
+        <v>1109.787858087175</v>
       </c>
       <c r="M5" t="n">
-        <v>1149.495958523325</v>
+        <v>1109.787858087175</v>
       </c>
       <c r="N5" t="n">
-        <v>1149.495958523325</v>
+        <v>1273.417761384298</v>
       </c>
       <c r="O5" t="n">
-        <v>1293.567921177998</v>
+        <v>1897.518545429078</v>
       </c>
       <c r="P5" t="n">
-        <v>1954.407975719776</v>
+        <v>2521.619329473858</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678371</v>
+        <v>2521.619329473858</v>
       </c>
       <c r="R5" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.619329473858</v>
       </c>
       <c r="S5" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.619329473858</v>
       </c>
       <c r="T5" t="n">
-        <v>2449.993599304466</v>
+        <v>2521.619329473858</v>
       </c>
       <c r="U5" t="n">
-        <v>2190.771296621483</v>
+        <v>2521.619329473858</v>
       </c>
       <c r="V5" t="n">
-        <v>1828.15434655531</v>
+        <v>2521.619329473858</v>
       </c>
       <c r="W5" t="n">
-        <v>1423.298891966343</v>
+        <v>2116.763874884891</v>
       </c>
       <c r="X5" t="n">
-        <v>1408.196832586058</v>
+        <v>1697.621411464202</v>
       </c>
       <c r="Y5" t="n">
-        <v>1403.951112926115</v>
+        <v>1289.335287763855</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>559.5729615199214</v>
+        <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>453.1165003565636</v>
+        <v>450.1476704174123</v>
       </c>
       <c r="D6" t="n">
-        <v>358.0262115031169</v>
+        <v>355.0573815639655</v>
       </c>
       <c r="E6" t="n">
-        <v>263.9057968300706</v>
+        <v>260.9369668909192</v>
       </c>
       <c r="F6" t="n">
-        <v>180.5219584462322</v>
+        <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>95.13686871241609</v>
+        <v>92.1680387732647</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947717</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862856</v>
+        <v>76.49605974993477</v>
       </c>
       <c r="J6" t="n">
-        <v>377.9595414948409</v>
+        <v>76.49605974993477</v>
       </c>
       <c r="K6" t="n">
-        <v>1038.799596036619</v>
+        <v>76.49605974993477</v>
       </c>
       <c r="L6" t="n">
-        <v>1175.902039375362</v>
+        <v>76.49605974993477</v>
       </c>
       <c r="M6" t="n">
-        <v>1175.902039375362</v>
+        <v>700.5968437947146</v>
       </c>
       <c r="N6" t="n">
-        <v>1175.902039375362</v>
+        <v>1089.571364023506</v>
       </c>
       <c r="O6" t="n">
-        <v>1175.902039375362</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="P6" t="n">
-        <v>1175.902039375362</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="Q6" t="n">
-        <v>1716.640978007438</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="R6" t="n">
-        <v>1716.640978007438</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1653.185540455821</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1523.006896786422</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1346.67034978639</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1147.55283184839</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>962.2300775815838</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>807.3626418204638</v>
+        <v>804.3938118813123</v>
       </c>
       <c r="Y6" t="n">
-        <v>680.8768625996845</v>
+        <v>677.9080326605331</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>933.2958513705998</v>
+        <v>1129.490547201359</v>
       </c>
       <c r="C7" t="n">
-        <v>760.7341398538248</v>
+        <v>956.9288356845835</v>
       </c>
       <c r="D7" t="n">
-        <v>594.8561470553475</v>
+        <v>791.0508428861062</v>
       </c>
       <c r="E7" t="n">
-        <v>425.0981433060848</v>
+        <v>621.2928391368434</v>
       </c>
       <c r="F7" t="n">
-        <v>248.391089267841</v>
+        <v>444.5857850985996</v>
       </c>
       <c r="G7" t="n">
-        <v>82.79981429366862</v>
+        <v>278.9945101244273</v>
       </c>
       <c r="H7" t="n">
-        <v>53.40121652862856</v>
+        <v>139.0923358148018</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947717</v>
       </c>
       <c r="J7" t="n">
-        <v>139.9809016933184</v>
+        <v>137.012071754167</v>
       </c>
       <c r="K7" t="n">
-        <v>414.739356264454</v>
+        <v>411.7705263253026</v>
       </c>
       <c r="L7" t="n">
-        <v>832.9492380324151</v>
+        <v>829.9804080932637</v>
       </c>
       <c r="M7" t="n">
-        <v>1292.433105213328</v>
+        <v>1289.464275274177</v>
       </c>
       <c r="N7" t="n">
-        <v>1734.691908370973</v>
+        <v>1586.250411413403</v>
       </c>
       <c r="O7" t="n">
-        <v>2154.361157596754</v>
+        <v>2005.919660639184</v>
       </c>
       <c r="P7" t="n">
-        <v>2501.868051567096</v>
+        <v>2353.426554609526</v>
       </c>
       <c r="Q7" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.619329473858</v>
       </c>
       <c r="R7" t="n">
-        <v>2648.6430051368</v>
+        <v>2500.20150817923</v>
       </c>
       <c r="S7" t="n">
-        <v>2489.401636434797</v>
+        <v>2340.960139477227</v>
       </c>
       <c r="T7" t="n">
-        <v>2243.522190013252</v>
+        <v>2095.080693055682</v>
       </c>
       <c r="U7" t="n">
-        <v>1965.089189266357</v>
+        <v>2095.080693055682</v>
       </c>
       <c r="V7" t="n">
-        <v>1678.133681136788</v>
+        <v>1808.125184926112</v>
       </c>
       <c r="W7" t="n">
-        <v>1406.107276723079</v>
+        <v>1794.120591272825</v>
       </c>
       <c r="X7" t="n">
-        <v>1160.715522056492</v>
+        <v>1548.728836606238</v>
       </c>
       <c r="Y7" t="n">
-        <v>933.2958513705998</v>
+        <v>1321.309165920346</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1674.185399119637</v>
+        <v>936.2280884669766</v>
       </c>
       <c r="C8" t="n">
-        <v>1236.042926303061</v>
+        <v>498.0856156503999</v>
       </c>
       <c r="D8" t="n">
-        <v>800.1331414775053</v>
+        <v>107.3793722531775</v>
       </c>
       <c r="E8" t="n">
-        <v>366.3583966358005</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F8" t="n">
-        <v>342.5313710854123</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>342.5313710854123</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
@@ -4808,13 +4810,13 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
         <v>1293.567921177998</v>
@@ -4832,22 +4834,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2524.68820323374</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>2524.68820323374</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V8" t="n">
-        <v>2524.68820323374</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="W8" t="n">
-        <v>2523.873152685177</v>
+        <v>2189.95624607292</v>
       </c>
       <c r="X8" t="n">
-        <v>2508.771093304892</v>
+        <v>1770.813782652231</v>
       </c>
       <c r="Y8" t="n">
-        <v>2100.484969604545</v>
+        <v>1362.527658951884</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4883,25 @@
         <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>404.0232146552985</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="K9" t="n">
-        <v>1064.863269197077</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="L9" t="n">
-        <v>1064.863269197077</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="M9" t="n">
-        <v>1064.863269197077</v>
+        <v>740.3049442308645</v>
       </c>
       <c r="N9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4936,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>922.1364226482442</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>749.5747111314691</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>583.6967183329918</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>583.6967183329918</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>406.9896642947481</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
         <v>281.9633400635787</v>
@@ -4990,22 +4992,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>2424.181380009883</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>2145.748379262989</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1858.792871133419</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1586.766466719711</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1341.374712053123</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1113.955041367231</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>222.1780169516887</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C11" t="n">
-        <v>56.12639965677761</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D11" t="n">
-        <v>56.12639965677761</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E11" t="n">
-        <v>56.12639965677761</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F11" t="n">
-        <v>56.12639965677761</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G11" t="n">
-        <v>56.12639965677761</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H11" t="n">
-        <v>56.12639965677761</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I11" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>491.3810871096955</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>491.3810871096955</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>491.3810871096955</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>491.3810871096955</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>701.5387406219832</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>1396.102936374606</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>2090.667132127229</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>2637.165918085824</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>2806.319982838881</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>2722.668109022718</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>2502.600881895756</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>2243.378579212773</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>1880.761629146599</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>1475.906174557633</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>1056.763711136943</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>648.4775874365965</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>360.751394631266</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>97.86205184056514</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J12" t="n">
-        <v>380.68472462299</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K12" t="n">
-        <v>1061.418244693367</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L12" t="n">
-        <v>1061.418244693367</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M12" t="n">
-        <v>1061.454444409171</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="N12" t="n">
-        <v>1061.454444409171</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O12" t="n">
-        <v>1061.454444409171</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P12" t="n">
-        <v>1061.454444409171</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q12" t="n">
-        <v>1602.193383041247</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R12" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>744.2024157797618</v>
+        <v>811.7546776883835</v>
       </c>
       <c r="C13" t="n">
-        <v>571.6407042629868</v>
+        <v>639.1929661716084</v>
       </c>
       <c r="D13" t="n">
-        <v>405.7627114645095</v>
+        <v>473.3149733731311</v>
       </c>
       <c r="E13" t="n">
-        <v>236.0047077152468</v>
+        <v>303.5569696238684</v>
       </c>
       <c r="F13" t="n">
-        <v>59.29765367700296</v>
+        <v>126.8499155856246</v>
       </c>
       <c r="G13" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H13" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>417.464539392603</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2651.368188264949</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2492.126819562946</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T13" t="n">
-        <v>2246.247373141401</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U13" t="n">
-        <v>1967.814372394506</v>
+        <v>2035.366634303128</v>
       </c>
       <c r="V13" t="n">
-        <v>1680.858864264937</v>
+        <v>1748.411126173558</v>
       </c>
       <c r="W13" t="n">
-        <v>1408.832459851228</v>
+        <v>1476.38472175985</v>
       </c>
       <c r="X13" t="n">
-        <v>1163.440705184641</v>
+        <v>1230.992967093262</v>
       </c>
       <c r="Y13" t="n">
-        <v>936.021034498749</v>
+        <v>1003.573296407371</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1364.370191513475</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>926.2277186968979</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>490.3179338713425</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>56.54318902963762</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>56.54318902963762</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G14" t="n">
-        <v>56.54318902963762</v>
+        <v>391.8077842004235</v>
       </c>
       <c r="H14" t="n">
-        <v>56.54318902963762</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I14" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>491.3810871096955</v>
+        <v>469.2344504049044</v>
       </c>
       <c r="K14" t="n">
-        <v>1185.945282862318</v>
+        <v>1303.584742363082</v>
       </c>
       <c r="L14" t="n">
-        <v>1396.102936374607</v>
+        <v>1303.584742363082</v>
       </c>
       <c r="M14" t="n">
-        <v>1396.102936374607</v>
+        <v>2460.632577573633</v>
       </c>
       <c r="N14" t="n">
-        <v>1396.102936374607</v>
+        <v>3586.36356101008</v>
       </c>
       <c r="O14" t="n">
-        <v>1396.102936374607</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="P14" t="n">
-        <v>2090.667132127229</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q14" t="n">
-        <v>2637.165918085824</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R14" t="n">
-        <v>2806.319982838881</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>2806.319982838881</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>2806.319982838881</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>2806.319982838881</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>2806.319982838881</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>2618.098349119418</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>2198.955885698729</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>1790.669761998382</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>360.751394631266</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>97.86205184056516</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J15" t="n">
-        <v>380.68472462299</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K15" t="n">
-        <v>1061.418244693367</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="L15" t="n">
-        <v>1061.418244693367</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="M15" t="n">
-        <v>1061.418244693367</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="N15" t="n">
-        <v>1061.418244693367</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="O15" t="n">
-        <v>1061.418244693367</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P15" t="n">
-        <v>1061.454444409171</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q15" t="n">
-        <v>1602.193383041247</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R15" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>744.2024157797618</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C16" t="n">
-        <v>571.6407042629868</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D16" t="n">
-        <v>405.7627114645095</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E16" t="n">
-        <v>405.7627114645095</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F16" t="n">
-        <v>229.0556574262657</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="G16" t="n">
-        <v>63.46438245209336</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="H16" t="n">
-        <v>63.46438245209336</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>417.4645393926031</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2651.368188264949</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2492.126819562946</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2246.247373141401</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U16" t="n">
-        <v>1967.814372394506</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V16" t="n">
-        <v>1680.858864264937</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W16" t="n">
-        <v>1408.832459851228</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X16" t="n">
-        <v>1163.440705184641</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y16" t="n">
-        <v>936.021034498749</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5494,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
         <v>1654.847790009657</v>
@@ -5501,61 +5503,61 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771601</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.807784200424</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L17" t="n">
-        <v>1612.575493976557</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M17" t="n">
-        <v>2769.623329187108</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N17" t="n">
-        <v>3895.354312623555</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O17" t="n">
-        <v>4875.533979193861</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P17" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
         <v>2955.199618136697</v>
@@ -5598,19 +5600,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>828.6046571760505</v>
       </c>
       <c r="M18" t="n">
-        <v>102.2608402707796</v>
+        <v>828.6046571760505</v>
       </c>
       <c r="N18" t="n">
-        <v>287.8657185439749</v>
+        <v>828.6046571760505</v>
       </c>
       <c r="O18" t="n">
-        <v>287.8657185439749</v>
+        <v>828.6046571760505</v>
       </c>
       <c r="P18" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q18" t="n">
         <v>1648.327823655249</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1062.363260807472</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>889.8015492906967</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>723.9235564922194</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>554.1655527429566</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>377.4584987047128</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>211.8672237305405</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5683,40 +5685,40 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113117</v>
       </c>
       <c r="O19" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338899</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309241</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173573</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173573</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.67908147157</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050025</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.36663430313</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1726.993304878938</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1481.601550212351</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1254.181879526459</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651787</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009655</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.07304516795</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771579</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004217</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436392</v>
+        <v>102.677629643638</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5759,40 +5761,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423627</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
         <v>2955.199618136697</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C21" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D21" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E21" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F21" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G21" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H21" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I21" t="n">
-        <v>128.3245134312372</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J21" t="n">
-        <v>452.8828383974496</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P21" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q21" t="n">
-        <v>1648.327823655249</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R21" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S21" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T21" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U21" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V21" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W21" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X21" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y21" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>790.3368563937634</v>
+        <v>3486.780615022739</v>
       </c>
       <c r="C22" t="n">
-        <v>617.7751448769883</v>
+        <v>3314.218903505964</v>
       </c>
       <c r="D22" t="n">
-        <v>451.897152078511</v>
+        <v>3148.340910707486</v>
       </c>
       <c r="E22" t="n">
-        <v>282.1391483292483</v>
+        <v>2978.582906958224</v>
       </c>
       <c r="F22" t="n">
-        <v>105.4320942910045</v>
+        <v>2801.87585291998</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>2636.284577945808</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I22" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J22" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K22" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L22" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M22" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>4867.162567117437</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008508</v>
+        <v>4588.729566370543</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.993304878938</v>
+        <v>4301.774058240973</v>
       </c>
       <c r="W22" t="n">
-        <v>1454.96690046523</v>
+        <v>4029.747653827265</v>
       </c>
       <c r="X22" t="n">
-        <v>1209.575145798642</v>
+        <v>3784.355899160677</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1554751127505</v>
+        <v>3678.599233741726</v>
       </c>
     </row>
     <row r="23">
@@ -5990,22 +5992,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L23" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M23" t="n">
-        <v>2011.671098481817</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N23" t="n">
-        <v>2758.053686176683</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O23" t="n">
-        <v>3738.23335274699</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P23" t="n">
-        <v>4566.543227580386</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q23" t="n">
         <v>5113.04201353898</v>
@@ -6075,7 +6077,7 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M24" t="n">
-        <v>531.6733301892817</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N24" t="n">
         <v>1765.500601749588</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1017.756527079655</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C25" t="n">
-        <v>845.1948155628801</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.575145798642</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y25" t="n">
-        <v>1209.575145798642</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>871.6588228237728</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>699.0971113069977</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>533.2191185085204</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>533.2191185085204</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1063.47744154276</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6464,25 +6466,25 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L29" t="n">
-        <v>1431.851786213076</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423627</v>
+        <v>1694.563362934248</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>2820.294346370695</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>3800.474012941002</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>4628.783887774398</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6543,22 +6545,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K30" t="n">
-        <v>782.9943603411569</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L30" t="n">
-        <v>782.9943603411569</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M30" t="n">
-        <v>782.9943603411569</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N30" t="n">
-        <v>782.9943603411569</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O30" t="n">
-        <v>782.9943603411569</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P30" t="n">
-        <v>1602.717526820355</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q30" t="n">
         <v>1765.500601749588</v>
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>282.1391483292483</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>105.4320942910045</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6701,25 +6703,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>936.6111322289576</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>1463.16863798718</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6780,22 +6782,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K33" t="n">
-        <v>405.0384966383147</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L33" t="n">
-        <v>405.0384966383147</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M33" t="n">
-        <v>405.0384966383147</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N33" t="n">
-        <v>405.0384966383147</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O33" t="n">
-        <v>405.0384966383147</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P33" t="n">
-        <v>1224.761663117513</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q33" t="n">
         <v>1765.500601749588</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1004.611946844417</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>832.0502353276421</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>666.1722425291648</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>496.4142387799021</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1669.241990915884</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1423.850236249296</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1196.430565563404</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6941,10 +6943,10 @@
         <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.671098481817</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="M35" t="n">
-        <v>2758.053686176683</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="N35" t="n">
         <v>2758.053686176683</v>
@@ -7011,28 +7013,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J36" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K36" t="n">
-        <v>128.3245134312372</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="L36" t="n">
-        <v>128.3245134312372</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="M36" t="n">
-        <v>531.6733301892817</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="N36" t="n">
-        <v>1765.500601749588</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="O36" t="n">
-        <v>1765.500601749588</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q36" t="n">
         <v>1765.500601749588</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>790.3368563937634</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C37" t="n">
-        <v>617.7751448769883</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D37" t="n">
-        <v>451.897152078511</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E37" t="n">
-        <v>282.1391483292483</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F37" t="n">
-        <v>105.4320942910045</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G37" t="n">
-        <v>105.4320942910045</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7122,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008508</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.993304878938</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W37" t="n">
-        <v>1454.96690046523</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X37" t="n">
-        <v>1209.575145798642</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1554751127505</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="38">
@@ -7160,10 +7162,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7178,25 +7180,25 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>2528.913654892426</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>3654.644638328873</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3654.644638328873</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>4482.954513162269</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>5029.453299120864</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
         <v>5029.390139722817</v>
@@ -7211,13 +7213,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J39" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K39" t="n">
-        <v>1133.616358467827</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L39" t="n">
-        <v>1133.616358467827</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="M39" t="n">
-        <v>1133.616358467827</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="N39" t="n">
-        <v>1133.616358467827</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="O39" t="n">
-        <v>1133.616358467827</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="P39" t="n">
-        <v>1133.616358467827</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q39" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3486.780615022739</v>
+        <v>864.7097725347917</v>
       </c>
       <c r="C40" t="n">
-        <v>3314.218903505964</v>
+        <v>692.1480610180166</v>
       </c>
       <c r="D40" t="n">
-        <v>3148.340910707486</v>
+        <v>526.2700682195393</v>
       </c>
       <c r="E40" t="n">
-        <v>2978.582906958224</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="F40" t="n">
-        <v>2801.87585291998</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G40" t="n">
-        <v>2636.284577945808</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H40" t="n">
-        <v>2496.382403636182</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>4953.800644836978</v>
+        <v>2612.634176317976</v>
       </c>
       <c r="T40" t="n">
-        <v>4707.921198415434</v>
+        <v>2366.754729896431</v>
       </c>
       <c r="U40" t="n">
-        <v>4429.488197668539</v>
+        <v>2088.321729149536</v>
       </c>
       <c r="V40" t="n">
-        <v>4142.53268953897</v>
+        <v>1801.366221019967</v>
       </c>
       <c r="W40" t="n">
-        <v>3923.990988408314</v>
+        <v>1529.339816606258</v>
       </c>
       <c r="X40" t="n">
-        <v>3678.599233741726</v>
+        <v>1283.948061939671</v>
       </c>
       <c r="Y40" t="n">
-        <v>3678.599233741726</v>
+        <v>1056.528391253779</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1993.178404549567</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>1555.035931732991</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1119.126146907435</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1119.126146907435</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>691.258717316643</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>289.8608859399069</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H41" t="n">
-        <v>56.12639965677762</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>491.3810871096955</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>491.3810871096955</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>701.5387406219835</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>701.5387406219835</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N41" t="n">
-        <v>701.5387406219835</v>
+        <v>4729.704604581732</v>
       </c>
       <c r="O41" t="n">
-        <v>1396.102936374607</v>
+        <v>4729.704604581732</v>
       </c>
       <c r="P41" t="n">
-        <v>2090.667132127229</v>
+        <v>4729.704604581732</v>
       </c>
       <c r="Q41" t="n">
-        <v>2637.165918085824</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>2806.319982838881</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>2806.319982838881</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>2806.319982838881</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>2806.319982838881</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>2806.319982838881</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>2401.464528249914</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
-        <v>2401.464528249914</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>1993.178404549567</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1649.251966351365</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>1542.795505188007</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>1447.705216334561</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>1353.584801661514</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>1270.200963277676</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>1184.81587354386</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>1143.080221360072</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>1169.14389452053</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>1493.702219486742</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K42" t="n">
-        <v>2148.408266112466</v>
+        <v>449.602989562749</v>
       </c>
       <c r="L42" t="n">
-        <v>2148.408266112466</v>
+        <v>449.602989562749</v>
       </c>
       <c r="M42" t="n">
-        <v>2148.408266112466</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.408266112466</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O42" t="n">
-        <v>2148.408266112466</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P42" t="n">
-        <v>2148.408266112466</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q42" t="n">
-        <v>2689.147204744541</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>2806.319982838881</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>2742.864545287264</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>2612.685901617866</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>2436.349354617834</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>2237.231836679834</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>2051.909082413028</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>1897.041646651908</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>1770.555867431128</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>969.3065674701817</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C43" t="n">
-        <v>796.7448559534066</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D43" t="n">
-        <v>796.7448559534066</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E43" t="n">
-        <v>626.9868522041439</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F43" t="n">
-        <v>450.2797981659001</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G43" t="n">
-        <v>284.6885231917278</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7863488821023</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>417.4645393926031</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2513.544640857574</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2267.665194436029</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>1989.232193689134</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V43" t="n">
-        <v>1905.963015955356</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W43" t="n">
-        <v>1633.936611541648</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X43" t="n">
-        <v>1388.544856875061</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y43" t="n">
-        <v>1161.125186189169</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2482.765607037787</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2044.62313422121</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1608.713349395655</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1174.93860455395</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>747.0711749631575</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>345.6733435864214</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H44" t="n">
-        <v>56.54318902963762</v>
+        <v>102.6776296436399</v>
       </c>
       <c r="I44" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>491.3810871096955</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1185.945282862318</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>1396.102936374607</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2090.667132127229</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2090.667132127229</v>
+        <v>3417.209496257023</v>
       </c>
       <c r="O44" t="n">
-        <v>2090.667132127229</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="P44" t="n">
-        <v>2090.667132127229</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>2637.165918085824</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>2806.319982838881</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>2722.668109022718</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>2722.668109022718</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>2722.668109022718</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>2722.668109022718</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>2722.668109022718</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>2722.668109022718</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2722.668109022718</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>360.751394631266</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>97.86205184056516</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>82.19007281723522</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>406.7483977834476</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1061.454444409171</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1061.454444409171</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1061.454444409171</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1061.454444409171</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1061.454444409171</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1061.454444409171</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1602.193383041247</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>906.6224367337088</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C46" t="n">
-        <v>734.0607252169337</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D46" t="n">
-        <v>568.1827324184565</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E46" t="n">
-        <v>398.4247286691938</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F46" t="n">
-        <v>221.7176746309499</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G46" t="n">
-        <v>56.12639965677762</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H46" t="n">
-        <v>56.12639965677762</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
-        <v>56.12639965677762</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>417.4645393926031</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2651.368188264949</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S46" t="n">
-        <v>2651.368188264949</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T46" t="n">
-        <v>2405.488741843405</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U46" t="n">
-        <v>2127.05574109651</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="V46" t="n">
-        <v>1840.10023296694</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W46" t="n">
-        <v>1568.073828553232</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X46" t="n">
-        <v>1325.860726138588</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y46" t="n">
-        <v>1098.441055452696</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157522</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8060,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>446.7260637956006</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8216,7 +8218,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684646</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8225,19 +8227,19 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>165.282730603155</v>
       </c>
       <c r="O5" t="n">
-        <v>145.5272350047205</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="Q5" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,31 +8291,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>138.4873165037804</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>630.4048323684646</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>392.9035557866584</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>630.4048323684644</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -8383,7 +8385,7 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>446.7260637956006</v>
+        <v>299.7839758982082</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8456,7 +8458,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,7 +8467,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -8529,28 +8531,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>540.0049805212334</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8690,22 +8692,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>212.2804580932198</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
-        <v>701.5799957097202</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097202</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8766,16 +8768,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M12" t="n">
-        <v>0.03656536949870315</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8787,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>370.6804142768937</v>
       </c>
       <c r="K14" t="n">
-        <v>701.5799957097202</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>212.2804580932202</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,7 +9005,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>687.6096162327044</v>
@@ -9018,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>992.4305468772036</v>
       </c>
       <c r="P15" t="n">
-        <v>0.03656536949870315</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9179,13 +9181,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>69.04441372935707</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9246,13 +9248,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>733.6806231366373</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9261,7 +9263,7 @@
         <v>828.0031984638366</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9407,16 +9409,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>801.4298400828734</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
@@ -9638,25 +9640,25 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>753.9218057523904</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9723,10 +9725,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>433.7499898166688</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9872,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10112,16 +10114,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>60.59188538505123</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10130,10 +10132,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>489.1496219844266</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,25 +10193,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>164.4273484133669</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -10349,13 +10351,13 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>531.8762684426488</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
@@ -10364,13 +10366,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,25 +10430,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>305.8360165328637</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -10589,13 +10591,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>753.9218057523904</v>
+        <v>702.7389601124028</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10659,31 +10661,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>407.423047230348</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>446.2295987639959</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -10826,16 +10828,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458549</v>
@@ -10844,7 +10846,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>84.43304486678335</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,16 +10898,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>305.8360165328637</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q39" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,25 +11062,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>212.2804580932201</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>701.5799957097203</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157522</v>
+        <v>216.3468123274661</v>
       </c>
       <c r="R41" t="n">
         <v>170.8626916697543</v>
@@ -11136,16 +11138,16 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158822</v>
+        <v>324.5237132641533</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11157,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11297,19 +11299,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>701.5799957097202</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>212.2804580932202</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>980.0845558810993</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -23258,25 +23260,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>269.3699469664489</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23428,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>160.7958207444075</v>
+        <v>139.5921776627341</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23504,13 +23506,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>214.4674826608089</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23659,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>48.19697732171672</v>
       </c>
       <c r="I16" t="n">
-        <v>80.50874676570884</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>29.99283294136596</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,10 +23949,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>139.592177662732</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24139,10 +24141,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>120.446375214271</v>
       </c>
     </row>
     <row r="23">
@@ -24367,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.9268490649757</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24607,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>59.30510368402733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24850,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25084,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>33.27974144948212</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25324,10 +25326,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>135.3636110865066</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25360,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>141.6500182959537</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25558,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>52.42554389793612</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25609,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>52.94985625022167</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25634,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25643,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>54.84171159091792</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25789,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25843,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>201.6494670918337</v>
+        <v>278.0953302292553</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>184.5330978149771</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25916,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,22 +26073,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>111.423652304583</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>3.146865729424093</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>521815.6119192818</v>
+        <v>514332.7106846814</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>521815.6119192818</v>
+        <v>520673.871896319</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>349245.2630559603</v>
+        <v>527659.8848661808</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>349245.2630559603</v>
+        <v>527659.8848661808</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>527659.8848661809</v>
+        <v>527659.8848661808</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>527659.8848661811</v>
+        <v>527659.8848661809</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>527659.8848661808</v>
+        <v>527659.8848661809</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>527659.8848661808</v>
+        <v>527659.8848661809</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>349245.2630559604</v>
+        <v>527659.8848661809</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>349245.2630559604</v>
+        <v>527659.8848661809</v>
       </c>
     </row>
   </sheetData>
@@ -26320,16 +26322,16 @@
         <v>442321.538909587</v>
       </c>
       <c r="E2" t="n">
-        <v>287689.2477427712</v>
+        <v>434657.5069133156</v>
       </c>
       <c r="F2" t="n">
-        <v>287689.2477427712</v>
+        <v>434657.5069133157</v>
       </c>
       <c r="G2" t="n">
         <v>434657.5069133156</v>
       </c>
       <c r="H2" t="n">
-        <v>434657.5069133157</v>
+        <v>434657.5069133154</v>
       </c>
       <c r="I2" t="n">
         <v>434657.5069133157</v>
@@ -26341,19 +26343,19 @@
         <v>434657.5069133157</v>
       </c>
       <c r="L2" t="n">
-        <v>434657.5069133156</v>
+        <v>434657.5069133157</v>
       </c>
       <c r="M2" t="n">
-        <v>434657.5069133157</v>
+        <v>434657.5069133155</v>
       </c>
       <c r="N2" t="n">
         <v>434657.5069133156</v>
       </c>
       <c r="O2" t="n">
-        <v>287689.2477427712</v>
+        <v>434657.5069133157</v>
       </c>
       <c r="P2" t="n">
-        <v>287689.2477427712</v>
+        <v>434657.5069133156</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840448</v>
+        <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501648</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998247</v>
       </c>
       <c r="E3" t="n">
-        <v>10170.99660045611</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>158059.4769461093</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177061</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877276</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622069</v>
       </c>
       <c r="M3" t="n">
-        <v>8489.081703340718</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139383.7472389045</v>
+        <v>187564.5330558133</v>
       </c>
       <c r="C4" t="n">
-        <v>139383.7472389045</v>
+        <v>146735.1647947849</v>
       </c>
       <c r="D4" t="n">
         <v>139383.7472389045</v>
       </c>
       <c r="E4" t="n">
-        <v>27218.28317125586</v>
+        <v>41122.95192991259</v>
       </c>
       <c r="F4" t="n">
-        <v>27218.28317125586</v>
+        <v>41122.95192991266</v>
       </c>
       <c r="G4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991259</v>
       </c>
       <c r="H4" t="n">
-        <v>41122.95192991271</v>
+        <v>41122.95192991259</v>
       </c>
       <c r="I4" t="n">
         <v>41122.95192991271</v>
       </c>
       <c r="J4" t="n">
-        <v>41122.95192991271</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="K4" t="n">
         <v>41122.95192991271</v>
       </c>
       <c r="L4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="M4" t="n">
         <v>41122.95192991272</v>
       </c>
       <c r="N4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="O4" t="n">
-        <v>27218.28317125586</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="P4" t="n">
-        <v>27218.28317125586</v>
+        <v>41122.95192991271</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.5245617577</v>
+        <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.5245617577</v>
+        <v>71956.21380800265</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>42656.06373915098</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>42656.06373915099</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>42656.06373915099</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>42656.06373915099</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5025.568524879825</v>
+        <v>53140.9170568414</v>
       </c>
       <c r="C6" t="n">
-        <v>228725.2671089248</v>
+        <v>157042.392411783</v>
       </c>
       <c r="D6" t="n">
-        <v>228725.2671089248</v>
+        <v>217197.6715589423</v>
       </c>
       <c r="E6" t="n">
-        <v>207643.9042319082</v>
+        <v>133461.2071565607</v>
       </c>
       <c r="F6" t="n">
-        <v>217814.9008323643</v>
+        <v>315816.3163776105</v>
       </c>
       <c r="G6" t="n">
-        <v>157756.8394315011</v>
+        <v>315816.3163776104</v>
       </c>
       <c r="H6" t="n">
-        <v>315816.3163776104</v>
+        <v>315816.3163776103</v>
       </c>
       <c r="I6" t="n">
         <v>315816.3163776104</v>
       </c>
       <c r="J6" t="n">
-        <v>141164.9676599043</v>
+        <v>204801.8510326202</v>
       </c>
       <c r="K6" t="n">
+        <v>262770.4617388377</v>
+      </c>
+      <c r="L6" t="n">
+        <v>306424.0146509884</v>
+      </c>
+      <c r="M6" t="n">
+        <v>163616.1454396227</v>
+      </c>
+      <c r="N6" t="n">
+        <v>315816.3163776103</v>
+      </c>
+      <c r="O6" t="n">
         <v>315816.3163776104</v>
       </c>
-      <c r="L6" t="n">
+      <c r="P6" t="n">
         <v>315816.3163776104</v>
-      </c>
-      <c r="M6" t="n">
-        <v>307327.2346742697</v>
-      </c>
-      <c r="N6" t="n">
-        <v>315816.3163776104</v>
-      </c>
-      <c r="O6" t="n">
-        <v>217814.9008323643</v>
-      </c>
-      <c r="P6" t="n">
-        <v>217814.9008323643</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684646</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>701.5799957097202</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>701.5799957097203</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>701.5799957097203</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>701.5799957097203</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483602</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939243</v>
       </c>
       <c r="E4" t="n">
-        <v>34.06478910186321</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>576.6805076750251</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483602</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939243</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186321</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483602</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939243</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186321</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>576.6805076750251</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>180.9697050174727</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.254829457195569</v>
+      </c>
+      <c r="E2" t="n">
         <v>400</v>
       </c>
-      <c r="C2" t="n">
+      <c r="F2" t="n">
         <v>400</v>
       </c>
-      <c r="D2" t="n">
-        <v>370.1803477317475</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
@@ -27534,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>135.6264858379777</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27585,10 +27587,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,7 +27599,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>41.29624514454014</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27616,22 +27618,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>289.9811395907774</v>
+        <v>114.2728118504387</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,22 +27669,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27789,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>109.3985407791396</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,13 +27830,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>255.4415926528171</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27856,10 +27858,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>44.75150601404977</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,10 +27870,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,10 +27906,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>73.94765788998069</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -27916,7 +27918,7 @@
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28017,13 +28019,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>40.15930123557293</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28062,7 +28064,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157523</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,16 +34774,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34793,10 +34795,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908068</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645585</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>446.7260637956006</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.017064616507</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,7 +34938,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684646</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,19 +34947,19 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>165.282730603155</v>
       </c>
       <c r="O5" t="n">
-        <v>145.5272350047205</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="Q5" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,31 +35011,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>138.4873165037804</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>630.4048323684646</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>392.9035557866584</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>630.4048323684644</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35100,16 +35102,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>446.7260637956006</v>
+        <v>299.7839758982082</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35176,7 +35178,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,7 +35187,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -35249,28 +35251,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>540.0049805212334</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35410,28 +35412,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>212.2804580932198</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
-        <v>701.5799957097202</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097202</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327045</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M12" t="n">
-        <v>0.03656536949870315</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35507,10 +35509,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>370.6804142768937</v>
       </c>
       <c r="K14" t="n">
-        <v>701.5799957097202</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>212.2804580932202</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327045</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35738,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>992.4305468772036</v>
       </c>
       <c r="P15" t="n">
-        <v>0.03656536949870315</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -35890,22 +35892,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081364</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>69.04441372935707</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,13 +35968,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>733.6806231366373</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35981,7 +35983,7 @@
         <v>828.0031984638366</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36051,10 +36053,10 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
-        <v>446.7260637956006</v>
+        <v>446.726063795594</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36127,16 +36129,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>801.4298400828734</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
@@ -36194,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K21" t="n">
         <v>661.3192390158824</v>
@@ -36218,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36276,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36291,13 +36293,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,25 +36360,25 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>753.9218057523904</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36443,10 +36445,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>433.7499898166688</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36832,28 +36834,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>60.59188538505123</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>489.1496219844266</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638367</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>164.4273484133669</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>531.8762684426488</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
@@ -37084,13 +37086,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>305.8360165328637</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37309,13 +37311,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>753.9218057523904</v>
+        <v>702.7389601124028</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37379,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>407.423047230348</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>446.2295987639959</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37546,25 +37548,25 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>552.0189757157532</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>84.43304486678335</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>305.8360165328637</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37637,13 +37639,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q39" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37713,13 +37715,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,28 +37782,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>212.2804580932201</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>701.5799957097203</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157523</v>
+        <v>216.3468123274661</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,19 +37855,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632091</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158822</v>
+        <v>324.5237132641533</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37877,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37935,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38017,19 +38019,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>701.5799957097202</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>212.2804580932202</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>980.0845558810993</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38038,7 +38040,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
@@ -38172,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_33.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1909544.10426858</v>
+        <v>1909018.921899548</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.0725916869</v>
+        <v>278692.0725916863</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>252.7913430709382</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
         <v>424.2958575201043</v>
@@ -670,10 +670,10 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>246.3816672165931</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>112.8805440925405</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>32.43393787379242</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -898,13 +898,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>319.4882362379722</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>315.5768070219722</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
@@ -1056,19 +1056,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>146.6816004434182</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -1110,13 +1110,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>13.86454771675433</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1138,7 +1138,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>386.7991809632501</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>229.4879285417441</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>35.20092700998642</v>
+        <v>13.99728392830462</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1372,10 +1372,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1390,7 +1390,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1539,16 +1539,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>24.34318456169651</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1584,7 +1584,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394337</v>
+        <v>63.51633119327856</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1609,25 +1609,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791314795</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800145</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1666,16 +1666,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655127</v>
       </c>
       <c r="W14" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1773,19 +1773,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>43.70143389869422</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>90.30617524481251</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1849,22 +1849,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112164</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791314795</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800145</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -2019,10 +2019,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -2058,10 +2058,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>172.6623007436949</v>
       </c>
       <c r="V19" t="n">
-        <v>144.4937753855419</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800609</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -2095,13 +2095,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791297911</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -2253,10 +2253,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2307,7 +2307,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>104.6990987647618</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2721,7 +2721,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>28.46824604904392</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -3189,7 +3189,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>31.24391673888117</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.036574780059</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932895</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800142</v>
       </c>
       <c r="T35" t="n">
         <v>217.8665548556918</v>
@@ -3426,7 +3426,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
@@ -3435,7 +3435,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>116.3527098704435</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
@@ -3444,7 +3444,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>142.4359347523201</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3663,7 +3663,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -3672,13 +3672,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>105.2234111170472</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>27.18442331492142</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3745,7 +3745,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773017</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>99.68042330889634</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -3918,7 +3918,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,10 +3954,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>5.990622819018522</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3994,10 +3994,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112178</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791316623</v>
+        <v>0.4126214791314603</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800142</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
@@ -4143,13 +4143,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>138.5031525665292</v>
@@ -4191,13 +4191,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>172.6623007436909</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>214.2296032617633</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>771.4315001967747</v>
+        <v>1571.10956023096</v>
       </c>
       <c r="C2" t="n">
-        <v>516.086709216029</v>
+        <v>1142.527885968228</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>713.9462117054968</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>684.2118709041961</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G2" t="n">
         <v>33.94366860160834</v>
@@ -4333,19 +4333,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="L2" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="M2" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="N2" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="O2" t="n">
         <v>874.0494664914149</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1107.976466382457</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1107.976466382457</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1107.976466382457</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1107.976466382457</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4357,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1477.116202953456</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U2" t="n">
-        <v>1217.893900270473</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V2" t="n">
-        <v>1217.893900270473</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="W2" t="n">
-        <v>1217.07884972191</v>
+        <v>1612.716505715692</v>
       </c>
       <c r="X2" t="n">
-        <v>1201.976790341625</v>
+        <v>1597.614446335406</v>
       </c>
       <c r="Y2" t="n">
-        <v>1197.731070681682</v>
+        <v>1593.368726675464</v>
       </c>
     </row>
     <row r="3">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>637.5656745568458</v>
+        <v>313.8424130087125</v>
       </c>
       <c r="C4" t="n">
-        <v>637.5656745568458</v>
+        <v>199.8216614000857</v>
       </c>
       <c r="D4" t="n">
-        <v>637.5656745568458</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="L4" t="n">
-        <v>452.1535503695694</v>
+        <v>538.7332355342593</v>
       </c>
       <c r="M4" t="n">
-        <v>872.2064493144727</v>
+        <v>958.7861344791625</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>1378.839033424066</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>1378.839033424066</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.765608785789</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T4" t="n">
-        <v>1675.765608785789</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U4" t="n">
-        <v>1397.332608038895</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="V4" t="n">
-        <v>1110.377099909325</v>
+        <v>1005.1071068273</v>
       </c>
       <c r="W4" t="n">
-        <v>1110.377099909325</v>
+        <v>733.0807024135913</v>
       </c>
       <c r="X4" t="n">
-        <v>864.9853452427376</v>
+        <v>733.0807024135913</v>
       </c>
       <c r="Y4" t="n">
-        <v>637.5656745568458</v>
+        <v>505.6610317276996</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>863.0357172789476</v>
+        <v>1267.076121319343</v>
       </c>
       <c r="C5" t="n">
-        <v>540.3203271395817</v>
+        <v>1232.974052543171</v>
       </c>
       <c r="D5" t="n">
-        <v>508.4509463544302</v>
+        <v>797.0642677176149</v>
       </c>
       <c r="E5" t="n">
-        <v>478.7166055531294</v>
+        <v>478.2998161802693</v>
       </c>
       <c r="F5" t="n">
-        <v>50.84917596233716</v>
+        <v>50.43238658947699</v>
       </c>
       <c r="G5" t="n">
-        <v>50.84917596233716</v>
+        <v>50.43238658947699</v>
       </c>
       <c r="H5" t="n">
-        <v>50.84917596233716</v>
+        <v>50.43238658947699</v>
       </c>
       <c r="I5" t="n">
-        <v>50.43238658947717</v>
+        <v>50.43238658947699</v>
       </c>
       <c r="J5" t="n">
-        <v>485.6870740423951</v>
+        <v>485.6870740423949</v>
       </c>
       <c r="K5" t="n">
-        <v>1109.787858087175</v>
+        <v>485.6870740423949</v>
       </c>
       <c r="L5" t="n">
-        <v>1109.787858087175</v>
+        <v>485.6870740423949</v>
       </c>
       <c r="M5" t="n">
-        <v>1109.787858087175</v>
+        <v>485.6870740423949</v>
       </c>
       <c r="N5" t="n">
-        <v>1273.417761384298</v>
+        <v>557.7649106726427</v>
       </c>
       <c r="O5" t="n">
-        <v>1897.518545429078</v>
+        <v>1181.86569471742</v>
       </c>
       <c r="P5" t="n">
-        <v>2521.619329473858</v>
+        <v>1805.966478762198</v>
       </c>
       <c r="Q5" t="n">
-        <v>2521.619329473858</v>
+        <v>2352.465264720793</v>
       </c>
       <c r="R5" t="n">
-        <v>2521.619329473858</v>
+        <v>2521.61932947385</v>
       </c>
       <c r="S5" t="n">
-        <v>2521.619329473858</v>
+        <v>2521.61932947385</v>
       </c>
       <c r="T5" t="n">
-        <v>2521.619329473858</v>
+        <v>2521.61932947385</v>
       </c>
       <c r="U5" t="n">
-        <v>2521.619329473858</v>
+        <v>2521.61932947385</v>
       </c>
       <c r="V5" t="n">
-        <v>2521.619329473858</v>
+        <v>2521.61932947385</v>
       </c>
       <c r="W5" t="n">
-        <v>2116.763874884891</v>
+        <v>2520.804278925287</v>
       </c>
       <c r="X5" t="n">
-        <v>1697.621411464202</v>
+        <v>2101.661815504598</v>
       </c>
       <c r="Y5" t="n">
-        <v>1289.335287763855</v>
+        <v>1693.375691804251</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>556.6041315807699</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>450.1476704174123</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>355.0573815639655</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>260.9369668909192</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>177.5531285070808</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>92.1680387732647</v>
+        <v>92.16803877326453</v>
       </c>
       <c r="H6" t="n">
-        <v>50.43238658947717</v>
+        <v>50.43238658947699</v>
       </c>
       <c r="I6" t="n">
-        <v>76.49605974993477</v>
+        <v>76.49605974993459</v>
       </c>
       <c r="J6" t="n">
-        <v>76.49605974993477</v>
+        <v>401.0543847161469</v>
       </c>
       <c r="K6" t="n">
-        <v>76.49605974993477</v>
+        <v>1025.155168760925</v>
       </c>
       <c r="L6" t="n">
-        <v>76.49605974993477</v>
+        <v>1025.155168760925</v>
       </c>
       <c r="M6" t="n">
-        <v>700.5968437947146</v>
+        <v>1025.155168760925</v>
       </c>
       <c r="N6" t="n">
-        <v>1089.571364023506</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1713.672148068286</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1713.672148068286</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1713.672148068286</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
         <v>1713.672148068286</v>
@@ -4685,13 +4685,13 @@
         <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>959.2612476424324</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>804.3938118813123</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>677.9080326605331</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1129.490547201359</v>
+        <v>593.035735694034</v>
       </c>
       <c r="C7" t="n">
-        <v>956.9288356845835</v>
+        <v>444.8725029229045</v>
       </c>
       <c r="D7" t="n">
-        <v>791.0508428861062</v>
+        <v>278.9945101244272</v>
       </c>
       <c r="E7" t="n">
-        <v>621.2928391368434</v>
+        <v>278.9945101244272</v>
       </c>
       <c r="F7" t="n">
-        <v>444.5857850985996</v>
+        <v>278.9945101244272</v>
       </c>
       <c r="G7" t="n">
-        <v>278.9945101244273</v>
+        <v>278.9945101244272</v>
       </c>
       <c r="H7" t="n">
-        <v>139.0923358148018</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>50.43238658947717</v>
+        <v>50.43238658947699</v>
       </c>
       <c r="J7" t="n">
-        <v>137.012071754167</v>
+        <v>50.43238658947699</v>
       </c>
       <c r="K7" t="n">
-        <v>411.7705263253026</v>
+        <v>325.1908411606126</v>
       </c>
       <c r="L7" t="n">
-        <v>829.9804080932637</v>
+        <v>743.4007229285737</v>
       </c>
       <c r="M7" t="n">
-        <v>1289.464275274177</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>1586.250411413403</v>
+        <v>1586.250411413394</v>
       </c>
       <c r="O7" t="n">
-        <v>2005.919660639184</v>
+        <v>2005.919660639176</v>
       </c>
       <c r="P7" t="n">
-        <v>2353.426554609526</v>
+        <v>2353.426554609518</v>
       </c>
       <c r="Q7" t="n">
-        <v>2521.619329473858</v>
+        <v>2521.61932947385</v>
       </c>
       <c r="R7" t="n">
-        <v>2500.20150817923</v>
+        <v>2500.201508179221</v>
       </c>
       <c r="S7" t="n">
-        <v>2340.960139477227</v>
+        <v>2340.960139477218</v>
       </c>
       <c r="T7" t="n">
-        <v>2095.080693055682</v>
+        <v>2095.080693055673</v>
       </c>
       <c r="U7" t="n">
-        <v>2095.080693055682</v>
+        <v>1816.647692308778</v>
       </c>
       <c r="V7" t="n">
-        <v>1808.125184926112</v>
+        <v>1529.692184179209</v>
       </c>
       <c r="W7" t="n">
-        <v>1794.120591272825</v>
+        <v>1257.6657797655</v>
       </c>
       <c r="X7" t="n">
-        <v>1548.728836606238</v>
+        <v>1012.274025098913</v>
       </c>
       <c r="Y7" t="n">
-        <v>1321.309165920346</v>
+        <v>784.8543544130212</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>936.2280884669766</v>
+        <v>576.9744364820456</v>
       </c>
       <c r="C8" t="n">
-        <v>498.0856156503999</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D8" t="n">
-        <v>107.3793722531775</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>77.64503145187676</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>1149.495958523325</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>1293.567921177998</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>1293.567921177998</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>1293.567921177998</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4834,22 +4834,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2449.993599304466</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2190.771296621483</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V8" t="n">
-        <v>2190.771296621483</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W8" t="n">
-        <v>2189.95624607292</v>
+        <v>1643.366119093304</v>
       </c>
       <c r="X8" t="n">
-        <v>1770.813782652231</v>
+        <v>1411.5601306673</v>
       </c>
       <c r="Y8" t="n">
-        <v>1362.527658951884</v>
+        <v>1003.274006966953</v>
       </c>
     </row>
     <row r="9">
@@ -4883,16 +4883,16 @@
         <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>79.46488968908616</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>79.46488968908616</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>79.46488968908616</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>740.3049442308645</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
         <v>1058.729261281022</v>
@@ -4986,10 +4986,10 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
         <v>2634.504334502149</v>
@@ -5017,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K11" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L11" t="n">
-        <v>2446.925785934734</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="M11" t="n">
-        <v>2446.925785934734</v>
+        <v>1632.322702740237</v>
       </c>
       <c r="N11" t="n">
-        <v>2588.899621423628</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O11" t="n">
-        <v>3569.079287993934</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P11" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q11" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R11" t="n">
         <v>5113.042013538981</v>
@@ -5071,22 +5071,22 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>1056.803889081883</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
         <v>1765.500601749588</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>811.7546776883835</v>
+        <v>1004.611946844417</v>
       </c>
       <c r="C13" t="n">
-        <v>639.1929661716084</v>
+        <v>832.0502353276421</v>
       </c>
       <c r="D13" t="n">
-        <v>473.3149733731311</v>
+        <v>666.1722425291648</v>
       </c>
       <c r="E13" t="n">
-        <v>303.5569696238684</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F13" t="n">
-        <v>126.8499155856246</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G13" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H13" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
         <v>102.2608402707796</v>
@@ -5223,28 +5223,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T13" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U13" t="n">
-        <v>2035.366634303128</v>
+        <v>2228.223903459162</v>
       </c>
       <c r="V13" t="n">
-        <v>1748.411126173558</v>
+        <v>1941.268395329592</v>
       </c>
       <c r="W13" t="n">
-        <v>1476.38472175985</v>
+        <v>1669.241990915884</v>
       </c>
       <c r="X13" t="n">
-        <v>1230.992967093262</v>
+        <v>1423.850236249296</v>
       </c>
       <c r="Y13" t="n">
-        <v>1003.573296407371</v>
+        <v>1196.430565563404</v>
       </c>
     </row>
     <row r="14">
@@ -5266,40 +5266,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004235</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>469.2344504049044</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1303.584742363082</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1303.584742363082</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2460.632577573633</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>3586.36356101008</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>4566.543227580387</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
         <v>5113.042013538981</v>
@@ -5314,16 +5314,16 @@
         <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>782.9943603411569</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>782.9943603411569</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>782.9943603411569</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>782.9943603411569</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
         <v>1765.500601749588</v>
@@ -5421,16 +5421,16 @@
         <v>451.897152078511</v>
       </c>
       <c r="E16" t="n">
-        <v>282.1391483292483</v>
+        <v>451.897152078511</v>
       </c>
       <c r="F16" t="n">
-        <v>282.1391483292483</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G16" t="n">
-        <v>282.1391483292483</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H16" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
@@ -5494,7 +5494,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
         <v>1654.847790009657</v>
@@ -5503,40 +5503,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771601</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.807784200424</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2334.36864173419</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
@@ -5548,19 +5548,19 @@
         <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>828.6046571760505</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>828.6046571760505</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>828.6046571760505</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>828.6046571760505</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
         <v>1648.327823655249</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5676,49 +5676,49 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066088</v>
       </c>
       <c r="L19" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745698</v>
       </c>
       <c r="M19" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N19" t="n">
-        <v>1783.551532113117</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O19" t="n">
-        <v>2203.220781338899</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309241</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173573</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173573</v>
+        <v>2697.502628878955</v>
       </c>
       <c r="S19" t="n">
-        <v>2559.67908147157</v>
+        <v>2538.261260176952</v>
       </c>
       <c r="T19" t="n">
-        <v>2313.799635050025</v>
+        <v>2292.381813755407</v>
       </c>
       <c r="U19" t="n">
-        <v>2035.36663430313</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651787</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835211</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009655</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.07304516795</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771579</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004217</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>102.677629643638</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5761,13 +5761,13 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>3603.973621145286</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
-        <v>3603.973621145286</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3603.973621145286</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
@@ -5782,22 +5782,22 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C21" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D21" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E21" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F21" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G21" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H21" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S21" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T21" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U21" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V21" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W21" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X21" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y21" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3486.780615022739</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C22" t="n">
-        <v>3314.218903505964</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D22" t="n">
-        <v>3148.340910707486</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E22" t="n">
-        <v>2978.582906958224</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F22" t="n">
-        <v>2801.87585291998</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G22" t="n">
-        <v>2636.284577945808</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>5113.042013538981</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>5113.042013538981</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>4867.162567117437</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>4588.729566370543</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>4301.774058240973</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W22" t="n">
-        <v>4029.747653827265</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X22" t="n">
-        <v>3784.355899160677</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y22" t="n">
-        <v>3678.599233741726</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6302,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E28" t="n">
         <v>444.5591692831957</v>
@@ -6411,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>537.5155277236975</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L29" t="n">
-        <v>537.5155277236975</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M29" t="n">
-        <v>1694.563362934248</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N29" t="n">
-        <v>2820.294346370695</v>
+        <v>3137.402081918264</v>
       </c>
       <c r="O29" t="n">
-        <v>3800.474012941002</v>
+        <v>4117.581748488571</v>
       </c>
       <c r="P29" t="n">
-        <v>4628.783887774398</v>
+        <v>4945.891623321967</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6700,28 +6700,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6776,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C34" t="n">
         <v>780.1951658309357</v>
@@ -6885,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651791</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835214</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E35" t="n">
         <v>1221.073045167952</v>
@@ -6928,61 +6928,61 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
         <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>1021.773653488282</v>
       </c>
       <c r="L35" t="n">
-        <v>936.6111322289576</v>
+        <v>1021.773653488282</v>
       </c>
       <c r="M35" t="n">
-        <v>1632.322702740236</v>
+        <v>2178.821488698833</v>
       </c>
       <c r="N35" t="n">
-        <v>2758.053686176683</v>
+        <v>3304.55247213528</v>
       </c>
       <c r="O35" t="n">
-        <v>3738.23335274699</v>
+        <v>4284.732138705586</v>
       </c>
       <c r="P35" t="n">
-        <v>4566.543227580386</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="36">
@@ -7007,37 +7007,37 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H36" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1092.659051657336</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C37" t="n">
-        <v>920.0973401405612</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="D37" t="n">
-        <v>754.2193473420839</v>
+        <v>783.7002322972895</v>
       </c>
       <c r="E37" t="n">
-        <v>584.4613435928212</v>
+        <v>613.9422285480268</v>
       </c>
       <c r="F37" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J37" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L37" t="n">
         <v>881.8088617745661</v>
@@ -7131,16 +7131,16 @@
         <v>2173.190181710511</v>
       </c>
       <c r="V37" t="n">
-        <v>2029.315500142511</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W37" t="n">
-        <v>1757.289095728803</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X37" t="n">
-        <v>1511.897341062215</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y37" t="n">
-        <v>1284.477670376323</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="38">
@@ -7162,13 +7162,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7180,22 +7180,22 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2528.913654892426</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N38" t="n">
-        <v>3654.644638328873</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3654.644638328873</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>4482.954513162269</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5029.453299120864</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
@@ -7213,13 +7213,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>864.7097725347917</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="C40" t="n">
-        <v>692.1480610180166</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D40" t="n">
-        <v>526.2700682195393</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E40" t="n">
-        <v>356.5120644702766</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
-        <v>356.5120644702766</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>190.9207894961043</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
         <v>190.9207894961043</v>
@@ -7335,49 +7335,49 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800065979</v>
       </c>
       <c r="L40" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745589</v>
       </c>
       <c r="M40" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955472</v>
       </c>
       <c r="N40" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113116</v>
       </c>
       <c r="O40" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338898</v>
       </c>
       <c r="P40" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.72767530924</v>
       </c>
       <c r="Q40" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173572</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878944</v>
       </c>
       <c r="S40" t="n">
-        <v>2612.634176317976</v>
+        <v>2538.261260176941</v>
       </c>
       <c r="T40" t="n">
-        <v>2366.754729896431</v>
+        <v>2510.802246727525</v>
       </c>
       <c r="U40" t="n">
-        <v>2088.321729149536</v>
+        <v>2232.36924598063</v>
       </c>
       <c r="V40" t="n">
-        <v>1801.366221019967</v>
+        <v>1945.413737851061</v>
       </c>
       <c r="W40" t="n">
-        <v>1529.339816606258</v>
+        <v>1673.387333437352</v>
       </c>
       <c r="X40" t="n">
-        <v>1283.948061939671</v>
+        <v>1427.995578770765</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.528391253779</v>
+        <v>1200.575908084873</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651791</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835214</v>
       </c>
       <c r="D41" t="n">
         <v>1654.847790009657</v>
@@ -7402,61 +7402,61 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
         <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J41" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K41" t="n">
-        <v>1371.865819681875</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L41" t="n">
-        <v>2446.925785934734</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M41" t="n">
-        <v>3603.973621145286</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N41" t="n">
-        <v>4729.704604581732</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O41" t="n">
-        <v>4729.704604581732</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P41" t="n">
-        <v>4729.704604581732</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="42">
@@ -7481,34 +7481,34 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H42" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I42" t="n">
         <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>449.602989562749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>449.602989562749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
         <v>1648.327823655249</v>
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1092.659051657336</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C43" t="n">
-        <v>920.0973401405612</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D43" t="n">
-        <v>754.2193473420839</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E43" t="n">
-        <v>584.4613435928212</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F43" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G43" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H43" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J43" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L43" t="n">
         <v>881.8088617745661</v>
@@ -7602,19 +7602,19 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2035.366634303136</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="V43" t="n">
-        <v>2029.315500142511</v>
+        <v>2026.844126920461</v>
       </c>
       <c r="W43" t="n">
-        <v>1757.289095728803</v>
+        <v>1754.817722506753</v>
       </c>
       <c r="X43" t="n">
-        <v>1511.897341062215</v>
+        <v>1509.425967840165</v>
       </c>
       <c r="Y43" t="n">
-        <v>1284.477670376323</v>
+        <v>1282.006297154273</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651791</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835214</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009659</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167954</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771616</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004254</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436399</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I44" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J44" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K44" t="n">
-        <v>1371.865819681875</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L44" t="n">
-        <v>2446.925785934734</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M44" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532229</v>
       </c>
       <c r="N44" t="n">
-        <v>3417.209496257023</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O44" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="P44" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="45">
@@ -7718,10 +7718,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H45" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I45" t="n">
         <v>128.3245134312372</v>
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1181.319000882661</v>
+        <v>845.969722159226</v>
       </c>
       <c r="C46" t="n">
-        <v>1008.757289365886</v>
+        <v>673.4080106424509</v>
       </c>
       <c r="D46" t="n">
-        <v>842.8792965674086</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="E46" t="n">
-        <v>673.1212928181459</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F46" t="n">
-        <v>496.4142387799021</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G46" t="n">
-        <v>330.8229638057297</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H46" t="n">
         <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J46" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L46" t="n">
         <v>881.8088617745661</v>
@@ -7839,19 +7839,19 @@
         <v>2292.381813755403</v>
       </c>
       <c r="U46" t="n">
-        <v>2292.381813755403</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V46" t="n">
-        <v>2117.975449367836</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W46" t="n">
-        <v>1845.949044954127</v>
+        <v>1510.599766230692</v>
       </c>
       <c r="X46" t="n">
-        <v>1600.55729028754</v>
+        <v>1265.208011564105</v>
       </c>
       <c r="Y46" t="n">
-        <v>1373.137619601648</v>
+        <v>1037.788340878213</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="L2" t="n">
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -8145,19 +8145,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="N4" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N4" t="n">
-        <v>409.401749030468</v>
-      </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>151.6683048404234</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8218,7 +8218,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>630.4048323684646</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8227,19 +8227,19 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>165.282730603155</v>
+        <v>72.80589558610887</v>
       </c>
       <c r="O5" t="n">
-        <v>630.4048323684647</v>
+        <v>630.4048323684624</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684647</v>
+        <v>630.4048323684624</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,31 +8294,31 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684624</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>630.4048323684646</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>392.9035557866584</v>
+        <v>30.91440664742026</v>
       </c>
       <c r="O6" t="n">
-        <v>630.4048323684644</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8385,7 +8385,7 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>299.7839758982082</v>
+        <v>387.2382033372803</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8467,16 +8467,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,19 +8531,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>321.6407242930886</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8689,19 +8689,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>702.7389601124037</v>
       </c>
       <c r="N11" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8713,7 +8713,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,34 +8765,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>370.6804142768937</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>992.4305468772036</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
-        <v>733.6806231366373</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9409,16 +9409,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>801.4298400828734</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9950,22 +9950,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,16 +10111,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -10132,10 +10132,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>489.1496219844266</v>
+        <v>168.8387779969844</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>-5.578167937219307e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,16 +10585,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>489.1496219844287</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>702.7389601124028</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -10606,7 +10606,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>446.2295987639959</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10828,16 +10828,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458549</v>
@@ -10846,7 +10846,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>84.43304486678335</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,16 +10898,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
-        <v>305.8360165328637</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,19 +11068,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>216.3468123274661</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
         <v>170.8626916697543</v>
@@ -11138,16 +11138,16 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>324.5237132641533</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11305,10 +11305,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>565.8642197954482</v>
       </c>
       <c r="N44" t="n">
-        <v>980.0845558810993</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11317,10 +11317,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>139.5921776627341</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>212.1323395461471</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>131.2385495991671</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>48.19697732171672</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,10 +23946,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>102.9863699957308</v>
       </c>
       <c r="V19" t="n">
-        <v>139.592177662732</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24141,10 +24141,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>120.446375214271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24609,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25323,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>58.58727362741787</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>141.6500182959537</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25560,13 +25560,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>52.42554389793612</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>216.2362286424079</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>90.2200092229009</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>278.0953302292553</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26031,13 +26031,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26079,13 +26079,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>111.423652304583</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>55.07653710780806</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>527659.8848661808</v>
+        <v>527659.8848661809</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>527659.8848661808</v>
+        <v>527659.8848661809</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>527659.8848661808</v>
+        <v>527659.8848661811</v>
       </c>
     </row>
     <row r="8">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>527659.8848661809</v>
+        <v>527659.8848661808</v>
       </c>
     </row>
     <row r="15">
@@ -26328,10 +26328,10 @@
         <v>434657.5069133157</v>
       </c>
       <c r="G2" t="n">
-        <v>434657.5069133156</v>
+        <v>434657.5069133157</v>
       </c>
       <c r="H2" t="n">
-        <v>434657.5069133154</v>
+        <v>434657.5069133157</v>
       </c>
       <c r="I2" t="n">
         <v>434657.5069133157</v>
@@ -26343,19 +26343,19 @@
         <v>434657.5069133157</v>
       </c>
       <c r="L2" t="n">
-        <v>434657.5069133157</v>
+        <v>434657.5069133156</v>
       </c>
       <c r="M2" t="n">
+        <v>434657.5069133156</v>
+      </c>
+      <c r="N2" t="n">
         <v>434657.5069133155</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>434657.5069133156</v>
       </c>
-      <c r="O2" t="n">
-        <v>434657.5069133157</v>
-      </c>
       <c r="P2" t="n">
-        <v>434657.5069133156</v>
+        <v>434657.5069133158</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.76789501648</v>
+        <v>66587.76789501577</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.59554998247</v>
+        <v>11527.59554998315</v>
       </c>
       <c r="E3" t="n">
-        <v>182355.1092210497</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.85463877276</v>
+        <v>53045.8546387722</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.301726622069</v>
+        <v>9392.301726622623</v>
       </c>
       <c r="M3" t="n">
-        <v>152200.1709379876</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,28 +26420,28 @@
         <v>187564.5330558133</v>
       </c>
       <c r="C4" t="n">
-        <v>146735.1647947849</v>
+        <v>146735.1647947853</v>
       </c>
       <c r="D4" t="n">
         <v>139383.7472389045</v>
       </c>
       <c r="E4" t="n">
-        <v>41122.95192991259</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="F4" t="n">
-        <v>41122.95192991266</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="G4" t="n">
-        <v>41122.95192991259</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="H4" t="n">
-        <v>41122.95192991259</v>
+        <v>41122.95192991268</v>
       </c>
       <c r="I4" t="n">
         <v>41122.95192991271</v>
       </c>
       <c r="J4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="K4" t="n">
         <v>41122.95192991271</v>
@@ -26450,16 +26450,16 @@
         <v>41122.95192991271</v>
       </c>
       <c r="M4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991264</v>
       </c>
       <c r="N4" t="n">
-        <v>41122.95192991271</v>
+        <v>41122.95192991261</v>
       </c>
       <c r="O4" t="n">
-        <v>41122.95192991271</v>
+        <v>41122.95192991264</v>
       </c>
       <c r="P4" t="n">
-        <v>41122.95192991271</v>
+        <v>41122.95192991263</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>71956.21380800265</v>
+        <v>71956.2138080025</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
@@ -26502,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579253</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>53140.9170568414</v>
+        <v>53140.91705684138</v>
       </c>
       <c r="C6" t="n">
-        <v>157042.392411783</v>
+        <v>157042.3924117834</v>
       </c>
       <c r="D6" t="n">
-        <v>217197.6715589423</v>
+        <v>217197.6715589416</v>
       </c>
       <c r="E6" t="n">
-        <v>133461.2071565607</v>
+        <v>133437.9828171779</v>
       </c>
       <c r="F6" t="n">
-        <v>315816.3163776105</v>
+        <v>315793.0920382278</v>
       </c>
       <c r="G6" t="n">
-        <v>315816.3163776104</v>
+        <v>315793.0920382278</v>
       </c>
       <c r="H6" t="n">
-        <v>315816.3163776103</v>
+        <v>315793.0920382278</v>
       </c>
       <c r="I6" t="n">
-        <v>315816.3163776104</v>
+        <v>315793.0920382278</v>
       </c>
       <c r="J6" t="n">
-        <v>204801.8510326202</v>
+        <v>204778.6266932376</v>
       </c>
       <c r="K6" t="n">
-        <v>262770.4617388377</v>
+        <v>262747.2373994556</v>
       </c>
       <c r="L6" t="n">
-        <v>306424.0146509884</v>
+        <v>306400.7903116051</v>
       </c>
       <c r="M6" t="n">
-        <v>163616.1454396227</v>
+        <v>163592.9211002401</v>
       </c>
       <c r="N6" t="n">
-        <v>315816.3163776103</v>
+        <v>315793.0920382277</v>
       </c>
       <c r="O6" t="n">
-        <v>315816.3163776104</v>
+        <v>315793.0920382278</v>
       </c>
       <c r="P6" t="n">
-        <v>315816.3163776104</v>
+        <v>315793.092038228</v>
       </c>
     </row>
   </sheetData>
@@ -26792,7 +26792,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.4048323684646</v>
+        <v>630.4048323684624</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
@@ -26822,16 +26822,16 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="N4" t="n">
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="P4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
     </row>
   </sheetData>
@@ -27014,10 +27014,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.1089748483602</v>
+        <v>206.108974848358</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939243</v>
+        <v>37.11037423939462</v>
       </c>
       <c r="E4" t="n">
         <v>610.7452967768884</v>
@@ -27038,13 +27038,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483602</v>
+        <v>206.108974848358</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939243</v>
+        <v>37.11037423939462</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768882</v>
+        <v>610.7452967768886</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,10 +27260,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483602</v>
+        <v>206.108974848358</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939243</v>
+        <v>37.11037423939462</v>
       </c>
       <c r="M4" t="n">
         <v>610.7452967768884</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>180.9697050174727</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D2" t="n">
         <v>7.254829457195569</v>
@@ -27390,10 +27390,10 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>177.2070880782913</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>57.95555030906679</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>135.6264858379777</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>114.2728118504387</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>113.8601903713155</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27678,7 +27678,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27776,19 +27776,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>24.15449395818911</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27830,13 +27830,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>255.4415926528171</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>44.75150601404977</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,19 +27906,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>185.4631102447383</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>208.2197249473429</v>
+        <v>229.4233680290247</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28748,7 +28748,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>3.770613451100265e-12</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-5.293950842915267e-13</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29994,7 +29994,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>-1.491896692770301e-12</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>-6.272377253606402e-14</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30407,7 +30407,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>-6.159738237176469e-12</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30465,7 +30465,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>-5.267395245710442e-13</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="L2" t="n">
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34865,19 +34865,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="N4" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N4" t="n">
-        <v>409.401749030468</v>
-      </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>151.6683048404234</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,7 +34938,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>630.4048323684646</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34947,19 +34947,19 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>165.282730603155</v>
+        <v>72.80589558610887</v>
       </c>
       <c r="O5" t="n">
-        <v>630.4048323684647</v>
+        <v>630.4048323684624</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684647</v>
+        <v>630.4048323684624</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684624</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>630.4048323684646</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>392.9035557866584</v>
+        <v>30.91440664742026</v>
       </c>
       <c r="O6" t="n">
-        <v>630.4048323684644</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,19 +35093,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908068</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M7" t="n">
         <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>299.7839758982082</v>
+        <v>387.2382033372803</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512945</v>
@@ -35172,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35187,16 +35187,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,19 +35251,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>321.6407242930886</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>702.7389601124037</v>
       </c>
       <c r="N11" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35433,7 +35433,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>370.6804142768937</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35740,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>992.4305468772036</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
-        <v>733.6806231366373</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35980,10 +35980,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36044,16 +36044,16 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924961003</v>
       </c>
       <c r="L19" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N19" t="n">
-        <v>446.726063795594</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
         <v>423.9083325512945</v>
@@ -36129,16 +36129,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>801.4298400828734</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
         <v>661.3192390158824</v>
@@ -36220,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36278,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36293,13 +36293,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36457,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36694,10 +36694,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>489.1496219844266</v>
+        <v>168.8387779969844</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>-2.061388856709333e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36931,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37168,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>489.1496219844287</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>702.7389601124028</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -37326,7 +37326,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37402,13 +37402,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>446.2295987639959</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645586</v>
@@ -37548,25 +37548,25 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157532</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>84.43304486678335</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
-        <v>305.8360165328637</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37639,13 +37639,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960893</v>
       </c>
       <c r="L40" t="n">
         <v>422.4342240080415</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>216.3468123274661</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
         <v>170.862691669754</v>
@@ -37855,19 +37855,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K42" t="n">
-        <v>324.5237132641533</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>565.8642197954482</v>
       </c>
       <c r="N44" t="n">
-        <v>980.0845558810993</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38037,10 +38037,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K45" t="n">
         <v>661.3192390158824</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
